--- a/Clean data/top_8_teams_2017-2018.xlsx
+++ b/Clean data/top_8_teams_2017-2018.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/968a6796f7f06df9/Documents/GitHub/Project-3/Clean data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iretemiadelaja/Desktop/Project-3/Clean data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B76861E4-3B25-43F9-8095-8312B4E684B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AFFB71-6E93-024E-A582-F6660579623A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CD30BAAB-0CFA-4599-91B5-B94241DBA57A}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23260" windowHeight="12580" xr2:uid="{CD30BAAB-0CFA-4599-91B5-B94241DBA57A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$241</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -563,13 +566,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725E84E4-0534-46F3-9CB7-29B42EC335A5}">
   <dimension ref="A1:AR241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" customWidth="1"/>
+    <col min="21" max="21" width="9.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -816,7 +829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -941,7 +954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1066,7 +1079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1191,7 +1204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1316,7 +1329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1441,7 +1454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1566,7 +1579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1679,7 +1692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1804,7 +1817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1929,7 +1942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2054,7 +2067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2179,7 +2192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2304,7 +2317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2429,7 +2442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2555,7 +2568,7 @@
       </c>
       <c r="AR16" s="1"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2680,7 +2693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2805,7 +2818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2930,7 +2943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3055,7 +3068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3180,7 +3193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3305,7 +3318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3430,7 +3443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3555,7 +3568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3680,7 +3693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3805,7 +3818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3930,7 +3943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4055,7 +4068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -4180,7 +4193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -4305,7 +4318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4430,7 +4443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4555,7 +4568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4680,7 +4693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4805,7 +4818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4930,7 +4943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5055,7 +5068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5180,7 +5193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -5305,7 +5318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5430,7 +5443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5555,7 +5568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5680,7 +5693,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5805,7 +5818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5930,7 +5943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -6055,7 +6068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -6180,7 +6193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -6305,7 +6318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -6430,7 +6443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -6555,7 +6568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -6680,7 +6693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -6805,7 +6818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -6930,7 +6943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -7055,7 +7068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -7180,7 +7193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -7305,7 +7318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -7430,7 +7443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -7555,7 +7568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -7680,7 +7693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -7805,7 +7818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -7930,7 +7943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -8055,7 +8068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -8180,7 +8193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -8305,7 +8318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -8430,7 +8443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -8555,7 +8568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -8680,7 +8693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -8805,7 +8818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -8930,7 +8943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -9055,7 +9068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -9180,7 +9193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -9305,7 +9318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -9430,7 +9443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -9555,7 +9568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -9680,7 +9693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -9805,7 +9818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -9930,7 +9943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -10055,7 +10068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -10180,7 +10193,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -10305,7 +10318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -10430,7 +10443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -10555,7 +10568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -10680,7 +10693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -10805,7 +10818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -10930,7 +10943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -11055,7 +11068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -11180,7 +11193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -11305,7 +11318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -11430,7 +11443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -11555,7 +11568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -11680,7 +11693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -11805,7 +11818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -11930,7 +11943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -12055,7 +12068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -12180,7 +12193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -12305,7 +12318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -12430,7 +12443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -12555,7 +12568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -12680,7 +12693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -12805,7 +12818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -12930,7 +12943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -13055,7 +13068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -13180,7 +13193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -13305,7 +13318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -13430,7 +13443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -13555,7 +13568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -13680,7 +13693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -13805,7 +13818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -13930,7 +13943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -14055,7 +14068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -14180,7 +14193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -14305,7 +14318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -14430,7 +14443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -14555,7 +14568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -14680,7 +14693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -14805,7 +14818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -14930,7 +14943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -15055,7 +15068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -15180,7 +15193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -15305,7 +15318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -15430,7 +15443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -15555,7 +15568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -15680,7 +15693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -15805,7 +15818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -15930,7 +15943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -16055,7 +16068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -16180,7 +16193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -16305,7 +16318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -16430,7 +16443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -16555,7 +16568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -16680,7 +16693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -16805,7 +16818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -16930,7 +16943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -17055,7 +17068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -17180,7 +17193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -17305,7 +17318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -17430,7 +17443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -17555,7 +17568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -17680,7 +17693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -17805,7 +17818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -17930,7 +17943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -18055,7 +18068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -18180,7 +18193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -18305,7 +18318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -18430,7 +18443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -18555,7 +18568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -18680,7 +18693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -18805,7 +18818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -18930,7 +18943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -19055,7 +19068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -19180,7 +19193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -19305,7 +19318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -19430,7 +19443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -19555,7 +19568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -19680,7 +19693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -19805,7 +19818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -19930,7 +19943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -20055,7 +20068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -20180,7 +20193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -20305,7 +20318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -20430,7 +20443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -20555,7 +20568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -20680,7 +20693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -20805,7 +20818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -20930,7 +20943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -21055,7 +21068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -21180,7 +21193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -21305,7 +21318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -21430,7 +21443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -21555,7 +21568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -21680,7 +21693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -21805,7 +21818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -21930,7 +21943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -22055,7 +22068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -22180,7 +22193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -22305,7 +22318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -22430,7 +22443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -22555,7 +22568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -22680,7 +22693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -22805,7 +22818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -22930,7 +22943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -23055,7 +23068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -23180,7 +23193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -23305,7 +23318,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -23430,7 +23443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -23555,7 +23568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -23680,7 +23693,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="186" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -23805,7 +23818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -23930,7 +23943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -24055,7 +24068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -24180,7 +24193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -24305,7 +24318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -24430,7 +24443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -24555,7 +24568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -24680,7 +24693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -24805,7 +24818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -24930,7 +24943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -25055,7 +25068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -25180,7 +25193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -25305,7 +25318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -25430,7 +25443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -25555,7 +25568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -25680,7 +25693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -25805,7 +25818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -25930,7 +25943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -26055,7 +26068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -26180,7 +26193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -26305,7 +26318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -26430,7 +26443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -26555,7 +26568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -26680,7 +26693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -26805,7 +26818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -26930,7 +26943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -27055,7 +27068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -27180,7 +27193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -27305,7 +27318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -27430,7 +27443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -27555,7 +27568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -27680,7 +27693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -27805,7 +27818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -27930,7 +27943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -28055,7 +28068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -28180,7 +28193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -28305,7 +28318,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -28430,7 +28443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -28555,7 +28568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -28680,7 +28693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -28805,7 +28818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -28930,7 +28943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -29055,7 +29068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -29180,7 +29193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -29305,7 +29318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -29430,7 +29443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -29555,7 +29568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -29680,7 +29693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -29805,7 +29818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -29930,7 +29943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -30055,7 +30068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -30180,7 +30193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -30305,7 +30318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -30430,7 +30443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -30555,7 +30568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -30681,6 +30694,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B241" xr:uid="{7A8922FA-D20F-5B4A-94BD-96EEB46FB404}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
